--- a/tests/template/cortex_xlsx_data/01-field-errors.in/input.xlsx
+++ b/tests/template/cortex_xlsx_data/01-field-errors.in/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagler/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5873A1AC-A6FB-FE45-86B9-EEA390B56B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BFBA73-114D-F841-B1A6-6DE16FEFE226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Fl</t>
+  </si>
+  <si>
+    <t>Mn</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -411,11 +414,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -427,7 +426,15 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -666,7 +673,7 @@
   <dimension ref="A1:L986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -685,27 +692,27 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="18">
         <v>1E+16</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -716,51 +723,51 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="6"/>
@@ -769,124 +776,155 @@
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="7">
-        <v>5</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="15">
-        <v>4</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="B14" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="7">
-        <v>5</v>
-      </c>
-      <c r="C15" s="7">
-        <v>5</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="B15" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="3">
-        <v>65</v>
-      </c>
-      <c r="C16">
-        <v>66</v>
-      </c>
-      <c r="D16">
-        <v>67</v>
-      </c>
+      <c r="B16" s="27">
+        <v>0.65</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0.66</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0.67</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17">
-        <v>13</v>
-      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28">
+        <v>0.13</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="3">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>9</v>
-      </c>
+      <c r="B18" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28">
+        <v>0.09</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="3">
-        <v>-10</v>
-      </c>
+      <c r="B19" s="27">
+        <v>-0.1</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="3">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
+      <c r="B20" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="28">
+        <v>0.11</v>
+      </c>
+      <c r="D20" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="3">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>10</v>
+      <c r="B21" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="27">
+        <v>1.01</v>
+      </c>
+    </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1867,7 +1905,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1892,7 +1930,7 @@
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1910,7 +1948,7 @@
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1922,10 +1960,10 @@
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="19">
         <v>1.01</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2951,7 +2989,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>31</v>
       </c>
     </row>

--- a/tests/template/cortex_xlsx_data/01-field-errors.in/input.xlsx
+++ b/tests/template/cortex_xlsx_data/01-field-errors.in/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagler/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BFBA73-114D-F841-B1A6-6DE16FEFE226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48AB829-2C24-5D42-83D4-06E5C692C64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25460" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -334,30 +334,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -397,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -423,25 +399,13 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -450,6 +414,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,7 +642,7 @@
   <dimension ref="A1:L986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -723,30 +692,30 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -773,27 +742,27 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -801,129 +770,136 @@
         <v>5</v>
       </c>
       <c r="B14" s="25">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="C14" s="25"/>
-      <c r="D14" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="D14" s="25">
+        <v>4</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="25">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="C15" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="27">
-        <v>0.65</v>
-      </c>
-      <c r="C16" s="28">
-        <v>0.66</v>
-      </c>
-      <c r="D16" s="28">
-        <v>0.67</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="B16" s="25">
+        <v>65</v>
+      </c>
+      <c r="C16" s="25">
+        <v>66</v>
+      </c>
+      <c r="D16" s="25">
+        <v>67</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28">
-        <v>0.13</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25">
+        <v>13</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28">
-        <v>0.09</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="B18" s="25">
+        <v>10</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25">
+        <v>9</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="27">
-        <v>-0.1</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="B19" s="25">
+        <v>-10</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="28">
-        <v>0.11</v>
-      </c>
-      <c r="D20" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="B20" s="25">
+        <v>10</v>
+      </c>
+      <c r="C20" s="25">
+        <v>11</v>
+      </c>
+      <c r="D20" s="25">
+        <v>10</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28">
-        <v>0.1</v>
+      <c r="B21" s="25">
+        <v>10</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="27">
-        <v>1.01</v>
-      </c>
+      <c r="B22" s="25">
+        <v>101</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1905,7 +1881,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1960,8 +1936,8 @@
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="19">
-        <v>1.01</v>
+      <c r="B7" s="24">
+        <v>101</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>28</v>

--- a/tests/template/cortex_xlsx_data/01-field-errors.in/input.xlsx
+++ b/tests/template/cortex_xlsx_data/01-field-errors.in/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagler/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48AB829-2C24-5D42-83D4-06E5C692C64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791B605D-DC31-B341-9B44-2B1C714BCBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25460" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>do-do</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>C7</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>Mn</t>
+  </si>
+  <si>
+    <t>C13</t>
   </si>
 </sst>
 </file>
@@ -399,6 +399,11 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,11 +419,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,7 +642,7 @@
   <dimension ref="A1:L986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -692,30 +692,30 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -745,161 +745,161 @@
       <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="20">
         <v>5</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20">
         <v>4</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="20">
         <v>5</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="20">
         <v>5</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="20">
         <v>0</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="20">
         <v>65</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="20">
         <v>66</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="20">
         <v>67</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25">
+        <v>38</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20">
         <v>13</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="25">
+        <v>39</v>
+      </c>
+      <c r="B18" s="20">
         <v>10</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20">
         <v>9</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="25">
+        <v>40</v>
+      </c>
+      <c r="B19" s="20">
         <v>-10</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="25">
+        <v>41</v>
+      </c>
+      <c r="B20" s="20">
         <v>10</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="20">
         <v>11</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="20">
         <v>10</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="25">
+        <v>42</v>
+      </c>
+      <c r="B21" s="20">
         <v>10</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="25">
+        <v>43</v>
+      </c>
+      <c r="B22" s="20">
         <v>101</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1936,7 +1936,7 @@
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="19">
         <v>101</v>
       </c>
       <c r="E7" s="13" t="s">
